--- a/Género/Guatemala/Localiza Guatemala.xlsx
+++ b/Género/Guatemala/Localiza Guatemala.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\Género\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6F317D1C-08E8-4B84-A0BD-94747FF11C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E73804-3CA3-4596-9904-E542E0DB0BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localiza GT" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2105,7 +2105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2644,17 +2644,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Localiza_Guatemala" displayName="Localiza_Guatemala" ref="A1:H342" totalsRowShown="0">
-  <autoFilter ref="A1:H342"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Localiza_Guatemala" displayName="Localiza_Guatemala" ref="A1:H342" totalsRowShown="0">
+  <autoFilter ref="A1:H342" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="País"/>
-    <tableColumn id="2" name="Id_Dep"/>
-    <tableColumn id="3" name="Departamento"/>
-    <tableColumn id="4" name="Id_Mun"/>
-    <tableColumn id="5" name="Municipio"/>
-    <tableColumn id="6" name="Geo X"/>
-    <tableColumn id="7" name="Geo Y"/>
-    <tableColumn id="8" name="AREA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="País"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Id_Dep"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Departamento"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Id_Mun"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Municipio"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Geo X"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Geo Y"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AREA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2956,11 +2956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11875,7 +11875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A342"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
